--- a/docs/arc-d/comunity_member_district_region.xlsx
+++ b/docs/arc-d/comunity_member_district_region.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs Developement\rstudio\Testing\core\docs\arc-d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A83DB0-2FAE-44D1-8BA5-C036B1E5AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908D135-7FFB-4750-91C7-7A72A09D3FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3014A6B8-38F6-4D8C-A917-2104CD081E51}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="227">
   <si>
     <t>community</t>
   </si>
@@ -669,6 +669,57 @@
   </si>
   <si>
     <t>Dhuusamareeb</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>CA9</t>
+  </si>
+  <si>
+    <t>CA11</t>
+  </si>
+  <si>
+    <t>CA12</t>
+  </si>
+  <si>
+    <t>CA13</t>
+  </si>
+  <si>
+    <t>Barwaaqo</t>
+  </si>
+  <si>
+    <t>CAT8</t>
+  </si>
+  <si>
+    <t>Bula_Kurman</t>
+  </si>
+  <si>
+    <t>Horseed_IDP</t>
+  </si>
+  <si>
+    <t>Camp_Jirax_IDP</t>
+  </si>
+  <si>
+    <t>Bulo_Ceysan</t>
+  </si>
+  <si>
+    <t>Horseed</t>
+  </si>
+  <si>
+    <t>Salama1_IDP</t>
+  </si>
+  <si>
+    <t>Salama2_IDP</t>
+  </si>
+  <si>
+    <t>Tawakal_IDP</t>
+  </si>
+  <si>
+    <t>terra</t>
+  </si>
+  <si>
+    <t>brcisiii</t>
   </si>
 </sst>
 </file>
@@ -764,7 +815,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -777,6 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,19 +1155,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E62E3B-2B2F-44DD-A3D8-D267DCE6C082}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
@@ -1131,6 +1184,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1" t="s">
@@ -1145,7 +1201,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="1" t="s">
@@ -1160,7 +1218,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="1" t="s">
@@ -1175,7 +1235,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="1" t="s">
@@ -1190,7 +1252,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="1" t="s">
@@ -1205,7 +1269,9 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="4" t="s">
@@ -1220,7 +1286,9 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="1" t="s">
@@ -1235,7 +1303,9 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="1" t="s">
@@ -1250,7 +1320,9 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -1265,7 +1337,9 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="1" t="s">
@@ -1280,7 +1354,9 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="1" t="s">
@@ -1295,7 +1371,9 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="1" t="s">
@@ -1310,7 +1388,9 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="1" t="s">
@@ -1325,7 +1405,9 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="1" t="s">
@@ -1340,7 +1422,9 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="1" t="s">
@@ -1355,7 +1439,9 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="1" t="s">
@@ -1370,7 +1456,9 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1" t="s">
@@ -1385,7 +1473,9 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="1" t="s">
@@ -1400,7 +1490,9 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="1" t="s">
@@ -1415,7 +1507,9 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="1" t="s">
@@ -1430,7 +1524,9 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="1" t="s">
@@ -1445,7 +1541,9 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="1" t="s">
@@ -1460,7 +1558,9 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="1" t="s">
@@ -1475,7 +1575,9 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="1" t="s">
@@ -1490,7 +1592,9 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="1" t="s">
@@ -1505,7 +1609,9 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="1" t="s">
@@ -1520,7 +1626,9 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="1" t="s">
@@ -1535,7 +1643,9 @@
       <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="1" t="s">
@@ -1550,7 +1660,9 @@
       <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="1" t="s">
@@ -1565,7 +1677,9 @@
       <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="1" t="s">
@@ -1580,7 +1694,9 @@
       <c r="D31" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="1" t="s">
@@ -1595,7 +1711,9 @@
       <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="1" t="s">
@@ -1610,7 +1728,9 @@
       <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="1" t="s">
@@ -1625,7 +1745,9 @@
       <c r="D34" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="1" t="s">
@@ -1640,7 +1762,9 @@
       <c r="D35" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="1" t="s">
@@ -1655,7 +1779,9 @@
       <c r="D36" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="1" t="s">
@@ -1670,7 +1796,9 @@
       <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="1" t="s">
@@ -1685,7 +1813,9 @@
       <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="1" t="s">
@@ -1700,7 +1830,9 @@
       <c r="D39" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="1" t="s">
@@ -1715,7 +1847,9 @@
       <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="1" t="s">
@@ -1730,7 +1864,9 @@
       <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="1" t="s">
@@ -1745,7 +1881,9 @@
       <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="1" t="s">
@@ -1760,7 +1898,9 @@
       <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="1" t="s">
@@ -1775,7 +1915,9 @@
       <c r="D44" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75">
       <c r="A45" s="1" t="s">
@@ -1790,7 +1932,9 @@
       <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15.75">
       <c r="A46" s="1" t="s">
@@ -1805,7 +1949,9 @@
       <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="1" t="s">
@@ -1820,7 +1966,9 @@
       <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75">
       <c r="A48" s="1" t="s">
@@ -1835,7 +1983,9 @@
       <c r="D48" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="1" t="s">
@@ -1850,7 +2000,9 @@
       <c r="D49" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="1" t="s">
@@ -1865,7 +2017,9 @@
       <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="1" t="s">
@@ -1880,7 +2034,9 @@
       <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="1" t="s">
@@ -1895,7 +2051,9 @@
       <c r="D52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="1" t="s">
@@ -1910,7 +2068,9 @@
       <c r="D53" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="1" t="s">
@@ -1925,7 +2085,9 @@
       <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="1" t="s">
@@ -1940,7 +2102,9 @@
       <c r="D55" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="1" t="s">
@@ -1955,7 +2119,9 @@
       <c r="D56" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="1" t="s">
@@ -1970,7 +2136,9 @@
       <c r="D57" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="1" t="s">
@@ -1985,7 +2153,9 @@
       <c r="D58" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="1" t="s">
@@ -2000,7 +2170,9 @@
       <c r="D59" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="1" t="s">
@@ -2015,7 +2187,9 @@
       <c r="D60" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="1" t="s">
@@ -2030,7 +2204,9 @@
       <c r="D61" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="1" t="s">
@@ -2045,7 +2221,9 @@
       <c r="D62" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="1" t="s">
@@ -2060,7 +2238,9 @@
       <c r="D63" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="1" t="s">
@@ -2075,7 +2255,9 @@
       <c r="D64" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="1" t="s">
@@ -2090,7 +2272,9 @@
       <c r="D65" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="1" t="s">
@@ -2105,7 +2289,9 @@
       <c r="D66" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="1" t="s">
@@ -2120,7 +2306,9 @@
       <c r="D67" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="1" t="s">
@@ -2135,7 +2323,9 @@
       <c r="D68" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75">
       <c r="A69" s="1" t="s">
@@ -2150,7 +2340,9 @@
       <c r="D69" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="1" t="s">
@@ -2165,7 +2357,9 @@
       <c r="D70" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="1" t="s">
@@ -2180,7 +2374,9 @@
       <c r="D71" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="1" t="s">
@@ -2195,7 +2391,9 @@
       <c r="D72" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="1" t="s">
@@ -2210,7 +2408,9 @@
       <c r="D73" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="1" t="s">
@@ -2225,7 +2425,9 @@
       <c r="D74" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="1" t="s">
@@ -2240,7 +2442,9 @@
       <c r="D75" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="1" t="s">
@@ -2255,7 +2459,9 @@
       <c r="D76" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="1" t="s">
@@ -2270,7 +2476,9 @@
       <c r="D77" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="1" t="s">
@@ -2285,7 +2493,9 @@
       <c r="D78" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="1" t="s">
@@ -2300,7 +2510,9 @@
       <c r="D79" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="1" t="s">
@@ -2315,7 +2527,9 @@
       <c r="D80" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="15.75">
       <c r="A81" s="1" t="s">
@@ -2330,7 +2544,9 @@
       <c r="D81" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="1" t="s">
@@ -2345,7 +2561,9 @@
       <c r="D82" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="15.75">
       <c r="A83" s="1" t="s">
@@ -2360,7 +2578,9 @@
       <c r="D83" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="1" t="s">
@@ -2375,7 +2595,9 @@
       <c r="D84" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="1" t="s">
@@ -2390,7 +2612,9 @@
       <c r="D85" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="15.75">
       <c r="A86" s="1" t="s">
@@ -2405,7 +2629,9 @@
       <c r="D86" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="1" t="s">
@@ -2420,7 +2646,9 @@
       <c r="D87" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="15.75">
       <c r="A88" s="1" t="s">
@@ -2435,7 +2663,9 @@
       <c r="D88" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="15.75">
       <c r="A89" s="1" t="s">
@@ -2450,7 +2680,9 @@
       <c r="D89" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="1" t="s">
@@ -2465,7 +2697,9 @@
       <c r="D90" t="s">
         <v>106</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="15.75">
       <c r="A91" s="1" t="s">
@@ -2480,7 +2714,9 @@
       <c r="D91" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="1" t="s">
@@ -2495,7 +2731,9 @@
       <c r="D92" t="s">
         <v>106</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="15.75">
       <c r="A93" s="1" t="s">
@@ -2510,7 +2748,9 @@
       <c r="D93" t="s">
         <v>106</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="15.75">
       <c r="A94" s="1" t="s">
@@ -2525,7 +2765,9 @@
       <c r="D94" t="s">
         <v>106</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="1" t="s">
@@ -2540,7 +2782,9 @@
       <c r="D95" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="15.75">
       <c r="A96" s="1" t="s">
@@ -2555,7 +2799,9 @@
       <c r="D96" t="s">
         <v>106</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="1" t="s">
@@ -2570,7 +2816,9 @@
       <c r="D97" t="s">
         <v>106</v>
       </c>
-      <c r="E97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="1" t="s">
@@ -2585,7 +2833,9 @@
       <c r="D98" t="s">
         <v>106</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="1" t="s">
@@ -2600,7 +2850,9 @@
       <c r="D99" t="s">
         <v>106</v>
       </c>
-      <c r="E99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="1" t="s">
@@ -2615,7 +2867,9 @@
       <c r="D100" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="15.75">
       <c r="A101" s="1" t="s">
@@ -2630,7 +2884,9 @@
       <c r="D101" t="s">
         <v>106</v>
       </c>
-      <c r="E101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="1" t="s">
@@ -2645,7 +2901,9 @@
       <c r="D102" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="1" t="s">
@@ -2660,7 +2918,9 @@
       <c r="D103" t="s">
         <v>106</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="15.75">
       <c r="A104" s="1" t="s">
@@ -2675,7 +2935,9 @@
       <c r="D104" t="s">
         <v>106</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="15.75">
       <c r="A105" s="1" t="s">
@@ -2690,7 +2952,9 @@
       <c r="D105" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="1" t="s">
@@ -2705,7 +2969,9 @@
       <c r="D106" t="s">
         <v>106</v>
       </c>
-      <c r="E106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="15.75">
       <c r="A107" s="1" t="s">
@@ -2720,7 +2986,9 @@
       <c r="D107" t="s">
         <v>106</v>
       </c>
-      <c r="E107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="15.75">
       <c r="A108" s="1" t="s">
@@ -2735,7 +3003,9 @@
       <c r="D108" t="s">
         <v>106</v>
       </c>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="15.75">
       <c r="A109" s="1" t="s">
@@ -2750,7 +3020,9 @@
       <c r="D109" t="s">
         <v>106</v>
       </c>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="110" spans="1:5" ht="15.75">
       <c r="A110" s="1" t="s">
@@ -2765,7 +3037,9 @@
       <c r="D110" t="s">
         <v>106</v>
       </c>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="15.75">
       <c r="A111" s="1" t="s">
@@ -2780,7 +3054,9 @@
       <c r="D111" t="s">
         <v>106</v>
       </c>
-      <c r="E111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="15.75">
       <c r="A112" s="1" t="s">
@@ -2795,7 +3071,9 @@
       <c r="D112" t="s">
         <v>106</v>
       </c>
-      <c r="E112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="113" spans="1:5" ht="15.75">
       <c r="A113" s="1" t="s">
@@ -2810,7 +3088,9 @@
       <c r="D113" t="s">
         <v>106</v>
       </c>
-      <c r="E113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="1" t="s">
@@ -2825,7 +3105,9 @@
       <c r="D114" t="s">
         <v>106</v>
       </c>
-      <c r="E114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="115" spans="1:5" ht="15.75">
       <c r="A115" s="1" t="s">
@@ -2840,7 +3122,9 @@
       <c r="D115" t="s">
         <v>106</v>
       </c>
-      <c r="E115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="1" t="s">
@@ -2855,7 +3139,9 @@
       <c r="D116" t="s">
         <v>106</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="117" spans="1:5" ht="15.75">
       <c r="A117" s="1" t="s">
@@ -2870,7 +3156,9 @@
       <c r="D117" t="s">
         <v>106</v>
       </c>
-      <c r="E117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="15.75">
       <c r="A118" s="1" t="s">
@@ -2885,7 +3173,9 @@
       <c r="D118" t="s">
         <v>106</v>
       </c>
-      <c r="E118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="15.75">
       <c r="A119" s="1" t="s">
@@ -2900,7 +3190,9 @@
       <c r="D119" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="120" spans="1:5" ht="15.75">
       <c r="A120" s="1" t="s">
@@ -2915,7 +3207,9 @@
       <c r="D120" t="s">
         <v>153</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="15.75">
       <c r="A121" s="1" t="s">
@@ -2930,7 +3224,9 @@
       <c r="D121" t="s">
         <v>153</v>
       </c>
-      <c r="E121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="15.75">
       <c r="A122" s="1" t="s">
@@ -2945,7 +3241,9 @@
       <c r="D122" t="s">
         <v>153</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="123" spans="1:5" ht="15.75">
       <c r="A123" s="1" t="s">
@@ -2960,7 +3258,9 @@
       <c r="D123" t="s">
         <v>153</v>
       </c>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="15.75">
       <c r="A124" s="1" t="s">
@@ -2975,7 +3275,9 @@
       <c r="D124" t="s">
         <v>153</v>
       </c>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="15.75">
       <c r="A125" s="1" t="s">
@@ -2990,7 +3292,9 @@
       <c r="D125" t="s">
         <v>153</v>
       </c>
-      <c r="E125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="15.75">
       <c r="A126" s="1" t="s">
@@ -3005,7 +3309,9 @@
       <c r="D126" t="s">
         <v>153</v>
       </c>
-      <c r="E126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="127" spans="1:5" ht="15.75">
       <c r="A127" s="1" t="s">
@@ -3020,7 +3326,9 @@
       <c r="D127" t="s">
         <v>153</v>
       </c>
-      <c r="E127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="128" spans="1:5" ht="15.75">
       <c r="A128" s="1" t="s">
@@ -3035,7 +3343,9 @@
       <c r="D128" t="s">
         <v>153</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="15.75">
       <c r="A129" s="1" t="s">
@@ -3050,7 +3360,9 @@
       <c r="D129" t="s">
         <v>153</v>
       </c>
-      <c r="E129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="1" t="s">
@@ -3065,7 +3377,9 @@
       <c r="D130" t="s">
         <v>153</v>
       </c>
-      <c r="E130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="131" spans="1:5" ht="15.75">
       <c r="A131" s="1" t="s">
@@ -3080,7 +3394,9 @@
       <c r="D131" t="s">
         <v>153</v>
       </c>
-      <c r="E131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="132" spans="1:5" ht="15.75">
       <c r="A132" s="1" t="s">
@@ -3095,7 +3411,9 @@
       <c r="D132" t="s">
         <v>153</v>
       </c>
-      <c r="E132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="15.75">
       <c r="A133" s="1" t="s">
@@ -3110,7 +3428,9 @@
       <c r="D133" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="134" spans="1:5" ht="15.75">
       <c r="A134" s="1" t="s">
@@ -3125,7 +3445,9 @@
       <c r="D134" t="s">
         <v>153</v>
       </c>
-      <c r="E134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="15.75">
       <c r="A135" s="1" t="s">
@@ -3140,7 +3462,9 @@
       <c r="D135" t="s">
         <v>153</v>
       </c>
-      <c r="E135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="136" spans="1:5" ht="15.75">
       <c r="A136" s="1" t="s">
@@ -3155,7 +3479,9 @@
       <c r="D136" t="s">
         <v>153</v>
       </c>
-      <c r="E136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="15">
       <c r="A137" s="4" t="s">
@@ -3170,7 +3496,9 @@
       <c r="D137" t="s">
         <v>101</v>
       </c>
-      <c r="E137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="138" spans="1:5" ht="15">
       <c r="A138" s="4" t="s">
@@ -3185,7 +3513,9 @@
       <c r="D138" t="s">
         <v>101</v>
       </c>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="15.75">
       <c r="A139" s="1" t="s">
@@ -3200,7 +3530,9 @@
       <c r="D139" t="s">
         <v>101</v>
       </c>
-      <c r="E139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="140" spans="1:5" ht="15.75">
       <c r="A140" s="1" t="s">
@@ -3215,7 +3547,9 @@
       <c r="D140" t="s">
         <v>101</v>
       </c>
-      <c r="E140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="141" spans="1:5" ht="15.75">
       <c r="A141" s="1" t="s">
@@ -3230,7 +3564,9 @@
       <c r="D141" t="s">
         <v>101</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="142" spans="1:5" ht="15.75">
       <c r="A142" s="1" t="s">
@@ -3245,7 +3581,9 @@
       <c r="D142" t="s">
         <v>101</v>
       </c>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="15.75">
       <c r="A143" s="1" t="s">
@@ -3260,7 +3598,9 @@
       <c r="D143" t="s">
         <v>101</v>
       </c>
-      <c r="E143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="144" spans="1:5" ht="15.75">
       <c r="A144" s="1" t="s">
@@ -3275,7 +3615,9 @@
       <c r="D144" t="s">
         <v>73</v>
       </c>
-      <c r="E144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="145" spans="1:5" ht="15.75">
       <c r="A145" s="1" t="s">
@@ -3290,7 +3632,9 @@
       <c r="D145" t="s">
         <v>73</v>
       </c>
-      <c r="E145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="146" spans="1:5" ht="15.75">
       <c r="A146" s="1" t="s">
@@ -3305,7 +3649,9 @@
       <c r="D146" t="s">
         <v>73</v>
       </c>
-      <c r="E146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="15.75">
       <c r="A147" s="1" t="s">
@@ -3320,7 +3666,9 @@
       <c r="D147" t="s">
         <v>73</v>
       </c>
-      <c r="E147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="148" spans="1:5" ht="15.75">
       <c r="A148" s="1" t="s">
@@ -3335,7 +3683,9 @@
       <c r="D148" t="s">
         <v>178</v>
       </c>
-      <c r="E148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="149" spans="1:5" ht="15.75">
       <c r="A149" s="1" t="s">
@@ -3350,7 +3700,9 @@
       <c r="D149" t="s">
         <v>178</v>
       </c>
-      <c r="E149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="150" spans="1:5" ht="15.75">
       <c r="A150" s="1" t="s">
@@ -3365,7 +3717,9 @@
       <c r="D150" t="s">
         <v>178</v>
       </c>
-      <c r="E150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="151" spans="1:5" ht="15.75">
       <c r="A151" s="1" t="s">
@@ -3380,7 +3734,9 @@
       <c r="D151" t="s">
         <v>178</v>
       </c>
-      <c r="E151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="152" spans="1:5" ht="15">
       <c r="A152" s="4" t="s">
@@ -3395,7 +3751,9 @@
       <c r="D152" t="s">
         <v>178</v>
       </c>
-      <c r="E152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="153" spans="1:5" ht="15.75">
       <c r="A153" s="1" t="s">
@@ -3410,7 +3768,9 @@
       <c r="D153" t="s">
         <v>178</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="154" spans="1:5" ht="15.75">
       <c r="A154" s="1" t="s">
@@ -3425,7 +3785,9 @@
       <c r="D154" t="s">
         <v>178</v>
       </c>
-      <c r="E154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="15">
       <c r="A155" s="4" t="s">
@@ -3440,7 +3802,9 @@
       <c r="D155" t="s">
         <v>178</v>
       </c>
-      <c r="E155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="156" spans="1:5" ht="15.75">
       <c r="A156" s="1" t="s">
@@ -3455,7 +3819,9 @@
       <c r="D156" t="s">
         <v>178</v>
       </c>
-      <c r="E156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="157" spans="1:5" ht="15.75">
       <c r="A157" s="1" t="s">
@@ -3470,7 +3836,9 @@
       <c r="D157" t="s">
         <v>178</v>
       </c>
-      <c r="E157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="158" spans="1:5" ht="15.75">
       <c r="A158" s="1" t="s">
@@ -3485,7 +3853,9 @@
       <c r="D158" t="s">
         <v>178</v>
       </c>
-      <c r="E158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="159" spans="1:5" ht="15.75">
       <c r="A159" s="1" t="s">
@@ -3500,7 +3870,9 @@
       <c r="D159" t="s">
         <v>178</v>
       </c>
-      <c r="E159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="160" spans="1:5" ht="15.75">
       <c r="A160" s="1" t="s">
@@ -3515,9 +3887,11 @@
       <c r="D160" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="E160" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="2" customFormat="1" ht="15.75">
       <c r="A161" s="1" t="s">
         <v>189</v>
       </c>
@@ -3530,9 +3904,11 @@
       <c r="D161" t="s">
         <v>178</v>
       </c>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.75">
+      <c r="E161" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75">
       <c r="A162" s="1" t="s">
         <v>190</v>
       </c>
@@ -3545,9 +3921,11 @@
       <c r="D162" t="s">
         <v>192</v>
       </c>
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" ht="15.75">
+      <c r="E162" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75">
       <c r="A163" s="1" t="s">
         <v>193</v>
       </c>
@@ -3560,9 +3938,11 @@
       <c r="D163" t="s">
         <v>192</v>
       </c>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" ht="15.75">
+      <c r="E163" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>194</v>
       </c>
@@ -3575,9 +3955,11 @@
       <c r="D164" t="s">
         <v>192</v>
       </c>
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" ht="15.75">
+      <c r="E164" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75">
       <c r="A165" s="1" t="s">
         <v>195</v>
       </c>
@@ -3590,9 +3972,11 @@
       <c r="D165" t="s">
         <v>192</v>
       </c>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" ht="15.75">
+      <c r="E165" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75">
       <c r="A166" s="1" t="s">
         <v>196</v>
       </c>
@@ -3605,9 +3989,11 @@
       <c r="D166" t="s">
         <v>192</v>
       </c>
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" ht="15.75">
+      <c r="E166" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75">
       <c r="A167" s="6" t="s">
         <v>197</v>
       </c>
@@ -3620,9 +4006,11 @@
       <c r="D167" t="s">
         <v>192</v>
       </c>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.75">
+      <c r="E167" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75">
       <c r="A168" s="1" t="s">
         <v>198</v>
       </c>
@@ -3635,9 +4023,11 @@
       <c r="D168" t="s">
         <v>192</v>
       </c>
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" ht="15.75">
+      <c r="E168" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>199</v>
       </c>
@@ -3650,9 +4040,11 @@
       <c r="D169" t="s">
         <v>192</v>
       </c>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" ht="15.75">
+      <c r="E169" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75">
       <c r="A170" s="5" t="s">
         <v>200</v>
       </c>
@@ -3665,9 +4057,11 @@
       <c r="D170" t="s">
         <v>192</v>
       </c>
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" ht="15.75">
+      <c r="E170" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75">
       <c r="A171" s="5" t="s">
         <v>201</v>
       </c>
@@ -3680,9 +4074,11 @@
       <c r="D171" t="s">
         <v>101</v>
       </c>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" ht="15.75">
+      <c r="E171" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75">
       <c r="A172" s="5" t="s">
         <v>202</v>
       </c>
@@ -3695,9 +4091,11 @@
       <c r="D172" t="s">
         <v>73</v>
       </c>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" ht="15.75">
+      <c r="E172" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75">
       <c r="A173" s="7" t="s">
         <v>207</v>
       </c>
@@ -3710,9 +4108,11 @@
       <c r="D173" t="s">
         <v>101</v>
       </c>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" ht="15">
+      <c r="E173" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15">
       <c r="A174" s="3" t="s">
         <v>203</v>
       </c>
@@ -3725,25 +4125,287 @@
       <c r="D174" t="s">
         <v>101</v>
       </c>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="177" spans="6:7" ht="15">
+      <c r="E174" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15">
+      <c r="A175" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C175" t="s">
+        <v>146</v>
+      </c>
+      <c r="D175" t="s">
+        <v>73</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="15">
+      <c r="A176" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C176" t="s">
+        <v>146</v>
+      </c>
+      <c r="D176" t="s">
+        <v>73</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F176" s="3"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="15">
+      <c r="A177" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C177" t="s">
+        <v>146</v>
+      </c>
+      <c r="D177" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="6:7" ht="15">
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="15">
+      <c r="A178" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C178" t="s">
+        <v>146</v>
+      </c>
+      <c r="D178" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="6:7" ht="15">
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="6:7" ht="15">
-      <c r="G180" s="3"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="15">
+      <c r="A179" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C179" t="s">
+        <v>146</v>
+      </c>
+      <c r="D179" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="15">
+      <c r="A180" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" t="s">
+        <v>146</v>
+      </c>
+      <c r="D180" t="s">
+        <v>73</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="15">
+      <c r="A181" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" t="s">
+        <v>47</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="15">
+      <c r="A182" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" t="s">
+        <v>47</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="15">
+      <c r="A183" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" t="s">
+        <v>47</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="15">
+      <c r="A184" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" t="s">
+        <v>36</v>
+      </c>
+      <c r="D184" t="s">
+        <v>47</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="15">
+      <c r="A185" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" t="s">
+        <v>47</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" ht="15">
+      <c r="A186" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" t="s">
+        <v>47</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" ht="15">
+      <c r="A187" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C187" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" t="s">
+        <v>106</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" ht="15">
+      <c r="A188" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C188" t="s">
+        <v>208</v>
+      </c>
+      <c r="D188" t="s">
+        <v>106</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" ht="15">
+      <c r="A189" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C189" t="s">
+        <v>208</v>
+      </c>
+      <c r="D189" t="s">
+        <v>106</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D174" xr:uid="{A4E62E3B-2B2F-44DD-A3D8-D267DCE6C082}"/>
+  <conditionalFormatting sqref="G1:G1048576 A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>